--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4428298.6</v>
+        <v>2214149.3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4428298.6</v>
+        <v>2214149.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4428298.6</v>
+        <v>2214149.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3522363.04</v>
+        <v>1761181.52</v>
       </c>
       <c r="J2" t="n">
-        <v>479156.52</v>
+        <v>239578.26</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3043206.52</v>
+        <v>2000759.78</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -551,9 +551,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1385092.08</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>213389.52</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -565,19 +569,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3847139</v>
+        <v>3623967</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3847139</v>
+        <v>3623967</v>
       </c>
       <c r="F3" t="n">
-        <v>3343933</v>
+        <v>1686182</v>
       </c>
       <c r="G3" t="n">
-        <v>503206</v>
+        <v>1937785</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -585,16 +589,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4531970.29</v>
+        <v>2286293</v>
       </c>
       <c r="J3" t="n">
-        <v>549591.29</v>
+        <v>276826.43</v>
       </c>
       <c r="K3" t="n">
-        <v>1654239.71</v>
+        <v>835243</v>
       </c>
       <c r="L3" t="n">
-        <v>5636618.71</v>
+        <v>1727876.43</v>
       </c>
       <c r="M3" t="n">
         <v>700</v>
@@ -603,9 +607,13 @@
         <v>700</v>
       </c>
       <c r="O3" t="n">
-        <v>-5134112.71</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>209208.57</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -617,19 +625,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3487966.28</v>
+        <v>3111004.93</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3487966.28</v>
+        <v>3111004.93</v>
       </c>
       <c r="F4" t="n">
-        <v>2734043.58</v>
+        <v>1367021.79</v>
       </c>
       <c r="G4" t="n">
-        <v>753922.7</v>
+        <v>1743983.14</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,16 +645,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2648957.61</v>
+        <v>1324478.81</v>
       </c>
       <c r="J4" t="n">
-        <v>348796.63</v>
+        <v>174398.31</v>
       </c>
       <c r="K4" t="n">
-        <v>852897.4300000001</v>
+        <v>426448.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3153058.42</v>
+        <v>1072428.4</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -655,9 +663,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-2399135.72</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>671554.73</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -669,19 +681,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>669046</v>
+        <v>334523</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>669046</v>
+        <v>334523</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>669046</v>
+        <v>334523</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -689,16 +701,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>498604.29</v>
+        <v>249302.14</v>
       </c>
       <c r="J5" t="n">
-        <v>95578</v>
+        <v>47789</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>403026.29</v>
+        <v>297091.14</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -707,9 +719,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>266019.71</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>37431.86</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -721,19 +737,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43343292</v>
+        <v>21671646</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>43343292</v>
+        <v>21671646</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>43343292</v>
+        <v>21671646</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -741,16 +757,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19662677.4</v>
+        <v>9831338.699999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4334329.2</v>
+        <v>2167164.6</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15328348.2</v>
+        <v>11998503.3</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -759,9 +775,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>28014943.8</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>9673142.699999999</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -773,19 +793,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1098596.4</v>
+        <v>549298.2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1098596.4</v>
+        <v>549298.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1098596.4</v>
+        <v>549298.2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -793,16 +813,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>109859.64</v>
+        <v>54929.82</v>
       </c>
       <c r="J7" t="n">
-        <v>54929.82</v>
+        <v>27464.91</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>54929.82</v>
+        <v>82394.73</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -811,9 +831,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1043666.58</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>466903.47</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -825,19 +849,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1436710</v>
+        <v>718355</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1436710</v>
+        <v>718355</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1436710</v>
+        <v>718355</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -845,16 +869,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>191561.33</v>
+        <v>95780.67</v>
       </c>
       <c r="J8" t="n">
-        <v>95780.67</v>
+        <v>47890.33</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>95780.67</v>
+        <v>143671</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -863,9 +887,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1340929.33</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>574684</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -877,19 +905,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133800</v>
+        <v>66900</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>133800</v>
+        <v>66900</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>133800</v>
+        <v>66900</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -897,16 +925,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>17840</v>
+        <v>8920</v>
       </c>
       <c r="J9" t="n">
-        <v>8920</v>
+        <v>4460</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>8920</v>
+        <v>13380</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -915,9 +943,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>124880</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
+        <v>53520</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -929,19 +961,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1215710</v>
+        <v>607855</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1215710</v>
+        <v>607855</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1215710</v>
+        <v>607855</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -949,16 +981,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>121571</v>
+        <v>60785.5</v>
       </c>
       <c r="J10" t="n">
-        <v>60785.5</v>
+        <v>30392.75</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>60785.5</v>
+        <v>91178.25</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -967,9 +999,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1154924.5</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+        <v>516676.75</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -981,19 +1017,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2805682.5</v>
+        <v>1402841.25</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2805682.5</v>
+        <v>1402841.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2805682.5</v>
+        <v>1402841.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1001,16 +1037,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>374091</v>
+        <v>187045.5</v>
       </c>
       <c r="J11" t="n">
-        <v>187045.5</v>
+        <v>93522.75</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>187045.5</v>
+        <v>280568.25</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1019,9 +1055,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2618637</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>1122273</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1033,19 +1073,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>751937.5</v>
+        <v>375968.75</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>751937.5</v>
+        <v>375968.75</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>751937.5</v>
+        <v>375968.75</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1053,16 +1093,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>150387.5</v>
+        <v>75193.75</v>
       </c>
       <c r="J12" t="n">
-        <v>75193.75</v>
+        <v>37596.88</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75193.75</v>
+        <v>112790.62</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1071,9 +1111,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>676743.75</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>263178.12</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1085,19 +1129,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9466558.5</v>
+        <v>4733279.25</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9466558.5</v>
+        <v>4733279.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9466558.5</v>
+        <v>4733279.25</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1105,16 +1149,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>946655.85</v>
+        <v>473327.93</v>
       </c>
       <c r="J13" t="n">
-        <v>473327.93</v>
+        <v>236663.96</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>473327.92</v>
+        <v>709991.89</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1123,9 +1167,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>8993230.58</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>4023287.36</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1137,19 +1185,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9542155</v>
+        <v>4771077.5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9542155</v>
+        <v>4771077.5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9542155</v>
+        <v>4771077.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1157,16 +1205,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1272287.33</v>
+        <v>636143.67</v>
       </c>
       <c r="J14" t="n">
-        <v>636143.67</v>
+        <v>318071.83</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>636143.67</v>
+        <v>954215.5</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1175,9 +1223,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8906011.33</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
+        <v>3816862</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2214149.3</v>
+        <v>2214161.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
-        <v>2214149.3</v>
+        <v>2214305.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2214149.3</v>
+        <v>2214305.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1761181.52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>239578.26</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2000759.78</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>213389.52</v>
+        <v>2214305.3</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3623967</v>
+        <v>3624011</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3623967</v>
+        <v>3624011</v>
       </c>
       <c r="F3" t="n">
         <v>1686182</v>
       </c>
       <c r="G3" t="n">
-        <v>1937785</v>
+        <v>1937829</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2286293</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>276826.43</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>835243</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1727876.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>700</v>
@@ -607,7 +607,7 @@
         <v>700</v>
       </c>
       <c r="O3" t="n">
-        <v>209208.57</v>
+        <v>1937129</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3111004.93</v>
+        <v>3111072.93</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4264</v>
       </c>
       <c r="E4" t="n">
-        <v>3111004.93</v>
+        <v>3115336.93</v>
       </c>
       <c r="F4" t="n">
         <v>1367021.79</v>
       </c>
       <c r="G4" t="n">
-        <v>1743983.14</v>
+        <v>1748315.14</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1324478.81</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>174398.31</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>426448.72</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1072428.4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>671554.73</v>
+        <v>1748315.14</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>334523</v>
+        <v>334579</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
-        <v>334523</v>
+        <v>334691</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>334523</v>
+        <v>334691</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>249302.14</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>47789</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>297091.14</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>37431.86</v>
+        <v>334691</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -740,16 +740,16 @@
         <v>21671646</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8448</v>
       </c>
       <c r="E6" t="n">
-        <v>21671646</v>
+        <v>21680094</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21671646</v>
+        <v>21680094</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9831338.699999999</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2167164.6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>11998503.3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9673142.699999999</v>
+        <v>21680094</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>54929.82</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27464.91</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>82394.73</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>466903.47</v>
+        <v>549298.2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>95780.67</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>47890.33</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>143671</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>574684</v>
+        <v>718355</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13380</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>53520</v>
+        <v>66900</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60785.5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30392.75</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>91178.25</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>516676.75</v>
+        <v>607855</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>1402841.25</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>1402841.25</v>
+        <v>1402859.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1402841.25</v>
+        <v>1402859.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>187045.5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93522.75</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>280568.25</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1122273</v>
+        <v>1402859.25</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>75193.75</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>37596.88</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112790.62</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>263178.12</v>
+        <v>375968.75</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>473327.93</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>236663.96</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>709991.89</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4023287.36</v>
+        <v>4733279.25</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1188,16 +1188,16 @@
         <v>4771077.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E14" t="n">
-        <v>4771077.5</v>
+        <v>4771189.5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4771077.5</v>
+        <v>4771189.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>636143.67</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>318071.83</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>954215.5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3816862</v>
+        <v>4771189.5</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -533,26 +533,20 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2000793.38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
+        <v>190515.66</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>2214305.3</v>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t> </t>
@@ -589,26 +583,20 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2407395.29</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
+        <v>276832.71</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>700</v>
       </c>
       <c r="N3" t="n">
         <v>700</v>
       </c>
-      <c r="O3" t="n">
-        <v>1937129</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t> </t>
@@ -645,26 +633,20 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1410257.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
+        <v>174831.51</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>1748315.14</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t> </t>
@@ -701,26 +683,20 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>284189.14</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
+        <v>47813</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
-        <v>334691</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t> </t>
@@ -757,26 +733,20 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11999348.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
+        <v>2168009.4</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
-        <v>21680094</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t> </t>
@@ -813,16 +783,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>82394.73</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>27464.91</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>109859.64</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -831,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>549298.2</v>
+        <v>439438.56</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -869,16 +839,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>143671</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>47890.33</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191561.33</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -887,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>718355</v>
+        <v>526793.67</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -925,16 +895,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13380</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4460</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>17840</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -943,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>66900</v>
+        <v>49060</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -981,16 +951,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>91178.25</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30392.75</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>121571</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -999,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>607855</v>
+        <v>486284</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1037,26 +1007,20 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>280569.45</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
+        <v>93523.95</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="n">
-        <v>1402859.25</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t> </t>
@@ -1093,16 +1057,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>112790.62</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>37596.88</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>150387.5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1111,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>375968.75</v>
+        <v>225581.25</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1149,16 +1113,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>709991.89</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>236663.96</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>946655.85</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1167,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4733279.25</v>
+        <v>3786623.4</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1205,26 +1169,20 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>954222.97</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
+        <v>318079.3</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="n">
-        <v>4771189.5</v>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t> </t>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -549,7 +549,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -538,15 +538,21 @@
       <c r="J2" t="n">
         <v>190515.66</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2191309.04</v>
+      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>22996.26</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -588,15 +594,21 @@
       <c r="J3" t="n">
         <v>276832.71</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>835243</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1848985</v>
+      </c>
       <c r="M3" t="n">
         <v>700</v>
       </c>
       <c r="N3" t="n">
         <v>700</v>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>88144</v>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -638,15 +650,21 @@
       <c r="J4" t="n">
         <v>174831.51</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>426448.72</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1158640.7</v>
+      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>589674.4399999999</v>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -688,15 +706,21 @@
       <c r="J5" t="n">
         <v>47813</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>332002.14</v>
+      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>2688.86</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -738,15 +762,21 @@
       <c r="J6" t="n">
         <v>2168009.4</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14167357.5</v>
+      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>7512736.5</v>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1012,15 +1042,21 @@
       <c r="J11" t="n">
         <v>93523.95</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>374093.4</v>
+      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1028765.85</v>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1174,15 +1210,21 @@
       <c r="J14" t="n">
         <v>318079.3</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1272302.27</v>
+      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>3498887.23</v>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2407395.29</v>
+        <v>2407395.27</v>
       </c>
       <c r="J3" t="n">
         <v>276832.71</v>
@@ -598,7 +598,7 @@
         <v>835243</v>
       </c>
       <c r="L3" t="n">
-        <v>1848985</v>
+        <v>1848984.98</v>
       </c>
       <c r="M3" t="n">
         <v>700</v>
@@ -607,11 +607,11 @@
         <v>700</v>
       </c>
       <c r="O3" t="n">
-        <v>88144</v>
+        <v>88144.02</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1410257.9</v>
+        <v>1410257.88</v>
       </c>
       <c r="J4" t="n">
         <v>174831.51</v>
@@ -654,7 +654,7 @@
         <v>426448.72</v>
       </c>
       <c r="L4" t="n">
-        <v>1158640.7</v>
+        <v>1158640.67</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -663,11 +663,11 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>589674.4399999999</v>
+        <v>589674.47</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>82394.73</v>
+        <v>82394.75999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>27464.91</v>
+        <v>27464.92</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>109859.64</v>
+        <v>109859.68</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -831,11 +831,11 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>439438.56</v>
+        <v>439438.52</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>143671</v>
+        <v>143670.96</v>
       </c>
       <c r="J8" t="n">
-        <v>47890.33</v>
+        <v>47890.32</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191561.33</v>
+        <v>191561.28</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -887,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>526793.67</v>
+        <v>526793.72</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>280569.45</v>
+        <v>280569.48</v>
       </c>
       <c r="J11" t="n">
-        <v>93523.95</v>
+        <v>93523.96000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>374093.4</v>
+        <v>374093.44</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1055,11 +1055,11 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1028765.85</v>
+        <v>1028765.81</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>112790.62</v>
+        <v>112790.64</v>
       </c>
       <c r="J12" t="n">
         <v>37596.88</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150387.5</v>
+        <v>150387.52</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1111,11 +1111,11 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>225581.25</v>
+        <v>225581.23</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>709991.89</v>
+        <v>709991.97</v>
       </c>
       <c r="J13" t="n">
-        <v>236663.96</v>
+        <v>236663.99</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>946655.85</v>
+        <v>946655.96</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1167,11 +1167,11 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3786623.4</v>
+        <v>3786623.29</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>954222.97</v>
+        <v>954222.89</v>
       </c>
       <c r="J14" t="n">
-        <v>318079.3</v>
+        <v>318079.27</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1272302.27</v>
+        <v>1272302.16</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1223,11 +1223,11 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3498887.23</v>
+        <v>3498887.34</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3624011</v>
+        <v>3602530</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3624011</v>
+        <v>3602530</v>
       </c>
       <c r="F3" t="n">
         <v>1686182</v>
       </c>
       <c r="G3" t="n">
-        <v>1937829</v>
+        <v>1916348</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2407395.27</v>
+        <v>2388983.01</v>
       </c>
       <c r="J3" t="n">
-        <v>276832.71</v>
+        <v>273764</v>
       </c>
       <c r="K3" t="n">
         <v>835243</v>
       </c>
       <c r="L3" t="n">
-        <v>1848984.98</v>
+        <v>1827504.01</v>
       </c>
       <c r="M3" t="n">
         <v>700</v>
@@ -607,7 +607,7 @@
         <v>700</v>
       </c>
       <c r="O3" t="n">
-        <v>88144.02</v>
+        <v>88143.99000000001</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>

--- a/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/frc_asset_schedule.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2214161.3</v>
+        <v>2224161.3</v>
       </c>
       <c r="D2" t="n">
         <v>144</v>
       </c>
       <c r="E2" t="n">
-        <v>2214305.3</v>
+        <v>2224305.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2214305.3</v>
+        <v>2224305.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2000793.38</v>
+        <v>1771183.92</v>
       </c>
       <c r="J2" t="n">
-        <v>190515.66</v>
+        <v>239609.46</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2191309.04</v>
+        <v>2010793.38</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22996.26</v>
+        <v>213511.92</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2388974.43</v>
+        <v>2267894.43</v>
       </c>
       <c r="J3" t="n">
         <v>273761.14</v>
@@ -598,7 +598,7 @@
         <v>835243</v>
       </c>
       <c r="L3" t="n">
-        <v>1827492.57</v>
+        <v>1706412.57</v>
       </c>
       <c r="M3" t="n">
         <v>700</v>
@@ -607,7 +607,7 @@
         <v>700</v>
       </c>
       <c r="O3" t="n">
-        <v>88135.42999999999</v>
+        <v>209215.43</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1410257.88</v>
+        <v>1324492.39</v>
       </c>
       <c r="J4" t="n">
         <v>174831.51</v>
@@ -654,7 +654,7 @@
         <v>426448.72</v>
       </c>
       <c r="L4" t="n">
-        <v>1158640.67</v>
+        <v>1072875.18</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>589674.47</v>
+        <v>675439.96</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>284189.14</v>
+        <v>249326.14</v>
       </c>
       <c r="J5" t="n">
         <v>47813</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>332002.14</v>
+        <v>297139.14</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2688.86</v>
+        <v>37551.86</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11999348.1</v>
+        <v>9831338.699999999</v>
       </c>
       <c r="J6" t="n">
         <v>2168009.4</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>14167357.5</v>
+        <v>11999348.1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7512736.5</v>
+        <v>9680745.9</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>82394.75999999999</v>
+        <v>54929.84</v>
       </c>
       <c r="J7" t="n">
         <v>27464.92</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>109859.68</v>
+        <v>82394.75999999999</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>439438.52</v>
+        <v>466903.44</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>143670.96</v>
+        <v>95780.64</v>
       </c>
       <c r="J8" t="n">
         <v>47890.32</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191561.28</v>
+        <v>143670.96</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>526793.72</v>
+        <v>574684.04</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13380</v>
+        <v>8920</v>
       </c>
       <c r="J9" t="n">
         <v>4460</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>17840</v>
+        <v>13380</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>49060</v>
+        <v>53520</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>91178.25</v>
+        <v>60785.5</v>
       </c>
       <c r="J10" t="n">
         <v>30392.75</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>121571</v>
+        <v>91178.25</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>486284</v>
+        <v>516676.75</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>280569.48</v>
+        <v>187045.52</v>
       </c>
       <c r="J11" t="n">
         <v>93523.96000000001</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>374093.44</v>
+        <v>280569.48</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1028765.81</v>
+        <v>1122289.77</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>112790.64</v>
+        <v>75193.75999999999</v>
       </c>
       <c r="J12" t="n">
         <v>37596.88</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150387.52</v>
+        <v>112790.64</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>225581.23</v>
+        <v>263178.11</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>709991.97</v>
+        <v>473327.98</v>
       </c>
       <c r="J13" t="n">
         <v>236663.99</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>946655.96</v>
+        <v>709991.97</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3786623.29</v>
+        <v>4023287.28</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>954222.89</v>
+        <v>636143.62</v>
       </c>
       <c r="J14" t="n">
         <v>318079.27</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1272302.16</v>
+        <v>954222.89</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3498887.34</v>
+        <v>3816966.61</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
